--- a/saved/laporan_tdp.xlsx
+++ b/saved/laporan_tdp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>PEMERINTAH KABUPATEN BIREUEN</t>
   </si>
@@ -423,6 +423,240 @@
   </si>
   <si>
     <t>21 Mei 2018</t>
+  </si>
+  <si>
+    <t>HASBI AHMAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TGK. HASBI GAS. UD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gp. Bireuen Meunasah Blang Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>20 Januari 2015</t>
+  </si>
+  <si>
+    <t>20 Januari 2020</t>
+  </si>
+  <si>
+    <t>TRIANTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "HONDA JAYA"</t>
+  </si>
+  <si>
+    <t>Dsn. Kota  Gp. Keude Matang Glumpang Dua Kec. Peusangan</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "RAHMAT MULTI SKILL"</t>
+  </si>
+  <si>
+    <t>Jl. B. Aceh-medan Depan Kantor Bupati Bireuen Gp. Cot Gapu Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>21 Januari 2015</t>
+  </si>
+  <si>
+    <t>21 Januari 2020</t>
+  </si>
+  <si>
+    <t>ERNIDA, AMKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "BINTANG. APOTIK"</t>
+  </si>
+  <si>
+    <t>26 Maret 2019</t>
+  </si>
+  <si>
+    <t>ZAKARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "UD. KASIH SAYANG "</t>
+  </si>
+  <si>
+    <t>Jl. Alue Ie Mirah Gp. Blang Dalam Kec. Makmur</t>
+  </si>
+  <si>
+    <t>22 Januari 2015</t>
+  </si>
+  <si>
+    <t>22 Januari 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYAHRUL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SYAHRUL. UD"</t>
+  </si>
+  <si>
+    <t>Jl. Tgk. A. Raof Gp. Cot Keutapang Kec. Jeumpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMALIA MUKHTAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TRIPLE A. CV"</t>
+  </si>
+  <si>
+    <t>Dsn. Makmur Gp. Gampong Baro Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>23 Januari 2015</t>
+  </si>
+  <si>
+    <t>23 Januari 2020</t>
+  </si>
+  <si>
+    <t>TAUFIQ IQBAL, S.Kom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SHIFT CONSULTANT. CV"</t>
+  </si>
+  <si>
+    <t>Dsn. Week  Gp. Juli Me Teungoh Kec. Juli</t>
+  </si>
+  <si>
+    <t>IRHAM IBRAHIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "FAIR WB. CV"</t>
+  </si>
+  <si>
+    <t>Lr. Asrama Putri No. 9 Gp. Gampong Baro Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>SURNIATI AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "PUNCAK TEULAGA MANEH. CV"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gp. Bireuen Meunasah Tgk Digadong Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>ANWAR IBRAHIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "JASA TANI. UD"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gp. Jangka Mesjid Kec. Jangka</t>
+  </si>
+  <si>
+    <t>08 Mei 2019</t>
+  </si>
+  <si>
+    <t>MAWARDI A. GANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SUMBER TANI. UD"</t>
+  </si>
+  <si>
+    <t>Jl. Medan - B. Aceh Gp. Pandrah Kandeh Kec. Pandrah</t>
+  </si>
+  <si>
+    <t>05 Oktober 2017</t>
+  </si>
+  <si>
+    <t>YUSRIADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "LABANG DONYA. CV"</t>
+  </si>
+  <si>
+    <t>Jl. Almuslim Gp. Paya Cut Kec. Peusangan</t>
+  </si>
+  <si>
+    <t>24 Januari 2015</t>
+  </si>
+  <si>
+    <t>MARTUNIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "JEUMPA PUTEH, UD"</t>
+  </si>
+  <si>
+    <t>Jl. Medan - B. Aceh/limeng Madoe Gp. Cot Bada Kec. Jeumpa</t>
+  </si>
+  <si>
+    <t>26 Januari 2015</t>
+  </si>
+  <si>
+    <t>25 Februari 2019</t>
+  </si>
+  <si>
+    <t>INDRAWATY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "LEA SALON, TOKO"</t>
+  </si>
+  <si>
+    <t>Jl. T. Nyak Arief No. 14 Gp. Bandar Bireuen Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>05 September 2019</t>
+  </si>
+  <si>
+    <t>RIDWAN YUSUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " H.B. CV"</t>
+  </si>
+  <si>
+    <t>Jl. Sultan Malikussaleh Gp. Bireuen Meunasah Capa Kec. Kota Juang</t>
+  </si>
+  <si>
+    <t>27 Januari 2015</t>
+  </si>
+  <si>
+    <t>27 Januari 2020</t>
+  </si>
+  <si>
+    <t>HAMZAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DARA DITA. UD"</t>
+  </si>
+  <si>
+    <t>Gampong Jarommah Baroh Gp. Paloh Dama Kec. Kuta Blang</t>
+  </si>
+  <si>
+    <t>28 Januari 2015</t>
+  </si>
+  <si>
+    <t>28 Januari 2020</t>
+  </si>
+  <si>
+    <t>ZULKARNAINI ABD GANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "SEPAKAT TANI, UD"</t>
+  </si>
+  <si>
+    <t>Jl. Irigasi Gp. Pandrah Kandeh Kec. Pandrah</t>
+  </si>
+  <si>
+    <t>28 Februari 2017</t>
+  </si>
+  <si>
+    <t>MUTTAQIN, S. Farm, Apt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "APOTIK JAKARTA"</t>
+  </si>
+  <si>
+    <t>Jl. Medan-b.aceh Gp. Tingkeum Manyang Kec. Kuta Blang</t>
+  </si>
+  <si>
+    <t>29 Januari 2015</t>
+  </si>
+  <si>
+    <t>29 Januari 2020</t>
   </si>
   <si>
     <t>Kepala Kantor Pelayanan Perizinan Terpadu Satu Pintu</t>
@@ -897,10 +1131,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1973,29 +2207,637 @@
         <v>27</v>
       </c>
     </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="11">
+        <v>30</v>
+      </c>
+      <c r="B38" s="12">
+        <v>11254703914</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="11">
+        <v>31</v>
+      </c>
+      <c r="B39" s="12">
+        <v>11254503915</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="40" spans="1:12">
-      <c r="H40" s="1" t="s">
-        <v>136</v>
+      <c r="A40" s="11">
+        <v>32</v>
+      </c>
+      <c r="B40" s="12">
+        <v>11254703916</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="H41" s="1" t="s">
-        <v>137</v>
+      <c r="A41" s="11">
+        <v>33</v>
+      </c>
+      <c r="B41" s="12">
+        <v>11254703751</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="11">
+        <v>34</v>
+      </c>
+      <c r="B42" s="12">
+        <v>11254603917</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="11">
+        <v>35</v>
+      </c>
+      <c r="B43" s="12">
+        <v>11254703918</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="11">
+        <v>36</v>
+      </c>
+      <c r="B44" s="12">
+        <v>11234601713</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="H45" s="1" t="s">
-        <v>138</v>
+      <c r="A45" s="11">
+        <v>37</v>
+      </c>
+      <c r="B45" s="12">
+        <v>11237101710</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="H46" s="1" t="s">
-        <v>139</v>
+      <c r="A46" s="11">
+        <v>38</v>
+      </c>
+      <c r="B46" s="12">
+        <v>11254601712</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="H47" s="1" t="s">
-        <v>140</v>
+      <c r="A47" s="11">
+        <v>39</v>
+      </c>
+      <c r="B47" s="12">
+        <v>11234601711</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="11">
+        <v>40</v>
+      </c>
+      <c r="B48" s="12">
+        <v>11254702109</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="11">
+        <v>41</v>
+      </c>
+      <c r="B49" s="12">
+        <v>11254701326</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="11">
+        <v>42</v>
+      </c>
+      <c r="B50" s="12">
+        <v>11234601316</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="11">
+        <v>43</v>
+      </c>
+      <c r="B51" s="12">
+        <v>11254701992</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="11">
+        <v>44</v>
+      </c>
+      <c r="B52" s="12">
+        <v>11259602257</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="11">
+        <v>45</v>
+      </c>
+      <c r="B53" s="12">
+        <v>11234601714</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="11">
+        <v>46</v>
+      </c>
+      <c r="B54" s="12">
+        <v>11254703919</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="11">
+        <v>47</v>
+      </c>
+      <c r="B55" s="12">
+        <v>11254703230</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="11">
+        <v>48</v>
+      </c>
+      <c r="B56" s="12">
+        <v>11254703920</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="H59" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="H60" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="H64" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="H65" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="H66" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
